--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntf5-Ngfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntf5-Ngfr.xlsx
@@ -540,10 +540,10 @@
         <v>2.108393</v>
       </c>
       <c r="I2">
-        <v>0.676637073056764</v>
+        <v>0.4800474766800295</v>
       </c>
       <c r="J2">
-        <v>0.676637073056764</v>
+        <v>0.4800474766800294</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6946429999999998</v>
+        <v>0.6946430000000001</v>
       </c>
       <c r="N2">
-        <v>2.083928999999999</v>
+        <v>2.083929</v>
       </c>
       <c r="O2">
-        <v>0.1269399741689062</v>
+        <v>0.1140293552421611</v>
       </c>
       <c r="P2">
-        <v>0.1269399741689062</v>
+        <v>0.1140293552421611</v>
       </c>
       <c r="Q2">
-        <v>0.4881934795663332</v>
+        <v>0.4881934795663334</v>
       </c>
       <c r="R2">
-        <v>4.393741316096999</v>
+        <v>4.393741316097</v>
       </c>
       <c r="S2">
-        <v>0.08589229257554989</v>
+        <v>0.05473950425145014</v>
       </c>
       <c r="T2">
-        <v>0.08589229257554991</v>
+        <v>0.05473950425145013</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>2.108393</v>
       </c>
       <c r="I3">
-        <v>0.676637073056764</v>
+        <v>0.4800474766800295</v>
       </c>
       <c r="J3">
-        <v>0.676637073056764</v>
+        <v>0.4800474766800294</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.727146666666667</v>
+        <v>5.373609333333333</v>
       </c>
       <c r="N3">
-        <v>14.18144</v>
+        <v>16.120828</v>
       </c>
       <c r="O3">
-        <v>0.8638449905336953</v>
+        <v>0.8821066470161785</v>
       </c>
       <c r="P3">
-        <v>0.8638449905336955</v>
+        <v>0.8821066470161785</v>
       </c>
       <c r="Q3">
-        <v>3.322227647324445</v>
+        <v>3.776560101044889</v>
       </c>
       <c r="R3">
-        <v>29.90004882592</v>
+        <v>33.989040909404</v>
       </c>
       <c r="S3">
-        <v>0.5845095459694677</v>
+        <v>0.4234530700627979</v>
       </c>
       <c r="T3">
-        <v>0.5845095459694677</v>
+        <v>0.4234530700627979</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>2.108393</v>
       </c>
       <c r="I4">
-        <v>0.676637073056764</v>
+        <v>0.4800474766800295</v>
       </c>
       <c r="J4">
-        <v>0.676637073056764</v>
+        <v>0.4800474766800294</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05042666666666667</v>
+        <v>0.02353866666666667</v>
       </c>
       <c r="N4">
-        <v>0.15128</v>
+        <v>0.070616</v>
       </c>
       <c r="O4">
-        <v>0.009215035297398391</v>
+        <v>0.00386399774166032</v>
       </c>
       <c r="P4">
-        <v>0.009215035297398391</v>
+        <v>0.00386399774166032</v>
       </c>
       <c r="Q4">
-        <v>0.03543974367111111</v>
+        <v>0.01654292000977778</v>
       </c>
       <c r="R4">
-        <v>0.31895769304</v>
+        <v>0.148886280088</v>
       </c>
       <c r="S4">
-        <v>0.006235234511746414</v>
+        <v>0.001854902365781369</v>
       </c>
       <c r="T4">
-        <v>0.006235234511746414</v>
+        <v>0.001854902365781369</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1401493333333333</v>
+        <v>0.341519</v>
       </c>
       <c r="H5">
-        <v>0.4204479999999999</v>
+        <v>1.024557</v>
       </c>
       <c r="I5">
-        <v>0.1349324836937754</v>
+        <v>0.233275296666637</v>
       </c>
       <c r="J5">
-        <v>0.1349324836937754</v>
+        <v>0.233275296666637</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6946429999999998</v>
+        <v>0.6946430000000001</v>
       </c>
       <c r="N5">
-        <v>2.083928999999999</v>
+        <v>2.083929</v>
       </c>
       <c r="O5">
-        <v>0.1269399741689062</v>
+        <v>0.1140293552421611</v>
       </c>
       <c r="P5">
-        <v>0.1269399741689062</v>
+        <v>0.1140293552421611</v>
       </c>
       <c r="Q5">
-        <v>0.09735375335466663</v>
+        <v>0.237233782717</v>
       </c>
       <c r="R5">
-        <v>0.8761837801919996</v>
+        <v>2.135104044453</v>
       </c>
       <c r="S5">
-        <v>0.0171283259946342</v>
+        <v>0.02660023167282048</v>
       </c>
       <c r="T5">
-        <v>0.01712832599463421</v>
+        <v>0.02660023167282048</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1401493333333333</v>
+        <v>0.341519</v>
       </c>
       <c r="H6">
-        <v>0.4204479999999999</v>
+        <v>1.024557</v>
       </c>
       <c r="I6">
-        <v>0.1349324836937754</v>
+        <v>0.233275296666637</v>
       </c>
       <c r="J6">
-        <v>0.1349324836937754</v>
+        <v>0.233275296666637</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.727146666666667</v>
+        <v>5.373609333333333</v>
       </c>
       <c r="N6">
-        <v>14.18144</v>
+        <v>16.120828</v>
       </c>
       <c r="O6">
-        <v>0.8638449905336953</v>
+        <v>0.8821066470161785</v>
       </c>
       <c r="P6">
-        <v>0.8638449905336955</v>
+        <v>0.8821066470161785</v>
       </c>
       <c r="Q6">
-        <v>0.6625064539022222</v>
+        <v>1.835189685910666</v>
       </c>
       <c r="R6">
-        <v>5.96255808512</v>
+        <v>16.516707173196</v>
       </c>
       <c r="S6">
-        <v>0.1165607500991375</v>
+        <v>0.2057736897743115</v>
       </c>
       <c r="T6">
-        <v>0.1165607500991375</v>
+        <v>0.2057736897743115</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1401493333333333</v>
+        <v>0.341519</v>
       </c>
       <c r="H7">
-        <v>0.4204479999999999</v>
+        <v>1.024557</v>
       </c>
       <c r="I7">
-        <v>0.1349324836937754</v>
+        <v>0.233275296666637</v>
       </c>
       <c r="J7">
-        <v>0.1349324836937754</v>
+        <v>0.233275296666637</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -862,28 +862,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.05042666666666667</v>
+        <v>0.02353866666666667</v>
       </c>
       <c r="N7">
-        <v>0.15128</v>
+        <v>0.070616</v>
       </c>
       <c r="O7">
-        <v>0.009215035297398391</v>
+        <v>0.00386399774166032</v>
       </c>
       <c r="P7">
-        <v>0.009215035297398391</v>
+        <v>0.00386399774166032</v>
       </c>
       <c r="Q7">
-        <v>0.007067263715555555</v>
+        <v>0.008038901901333332</v>
       </c>
       <c r="R7">
-        <v>0.06360537343999999</v>
+        <v>0.072350117112</v>
       </c>
       <c r="S7">
-        <v>0.001243407600003773</v>
+        <v>0.0009013752195050267</v>
       </c>
       <c r="T7">
-        <v>0.001243407600003773</v>
+        <v>0.0009013752195050267</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.1957156666666666</v>
+        <v>0.4197003333333333</v>
       </c>
       <c r="H8">
-        <v>0.587147</v>
+        <v>1.259101</v>
       </c>
       <c r="I8">
-        <v>0.1884304432494605</v>
+        <v>0.2866772266533335</v>
       </c>
       <c r="J8">
-        <v>0.1884304432494605</v>
+        <v>0.2866772266533335</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6946429999999998</v>
+        <v>0.6946430000000001</v>
       </c>
       <c r="N8">
-        <v>2.083928999999999</v>
+        <v>2.083929</v>
       </c>
       <c r="O8">
-        <v>0.1269399741689062</v>
+        <v>0.1140293552421611</v>
       </c>
       <c r="P8">
-        <v>0.1269399741689062</v>
+        <v>0.1140293552421611</v>
       </c>
       <c r="Q8">
-        <v>0.1359525178403333</v>
+        <v>0.2915418986476667</v>
       </c>
       <c r="R8">
-        <v>1.223572660563</v>
+        <v>2.623877087829</v>
       </c>
       <c r="S8">
-        <v>0.02391935559872205</v>
+        <v>0.03268961931789051</v>
       </c>
       <c r="T8">
-        <v>0.02391935559872206</v>
+        <v>0.0326896193178905</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.1957156666666666</v>
+        <v>0.4197003333333333</v>
       </c>
       <c r="H9">
-        <v>0.587147</v>
+        <v>1.259101</v>
       </c>
       <c r="I9">
-        <v>0.1884304432494605</v>
+        <v>0.2866772266533335</v>
       </c>
       <c r="J9">
-        <v>0.1884304432494605</v>
+        <v>0.2866772266533335</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.727146666666667</v>
+        <v>5.373609333333333</v>
       </c>
       <c r="N9">
-        <v>14.18144</v>
+        <v>16.120828</v>
       </c>
       <c r="O9">
-        <v>0.8638449905336953</v>
+        <v>0.8821066470161785</v>
       </c>
       <c r="P9">
-        <v>0.8638449905336955</v>
+        <v>0.8821066470161785</v>
       </c>
       <c r="Q9">
-        <v>0.9251766612977778</v>
+        <v>2.255305628403111</v>
       </c>
       <c r="R9">
-        <v>8.326589951679999</v>
+        <v>20.297750655628</v>
       </c>
       <c r="S9">
-        <v>0.1627746944650902</v>
+        <v>0.2528798871790691</v>
       </c>
       <c r="T9">
-        <v>0.1627746944650903</v>
+        <v>0.252879887179069</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1957156666666666</v>
+        <v>0.4197003333333333</v>
       </c>
       <c r="H10">
-        <v>0.587147</v>
+        <v>1.259101</v>
       </c>
       <c r="I10">
-        <v>0.1884304432494605</v>
+        <v>0.2866772266533335</v>
       </c>
       <c r="J10">
-        <v>0.1884304432494605</v>
+        <v>0.2866772266533335</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1048,28 +1048,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.05042666666666667</v>
+        <v>0.02353866666666667</v>
       </c>
       <c r="N10">
-        <v>0.15128</v>
+        <v>0.070616</v>
       </c>
       <c r="O10">
-        <v>0.009215035297398391</v>
+        <v>0.00386399774166032</v>
       </c>
       <c r="P10">
-        <v>0.009215035297398391</v>
+        <v>0.00386399774166032</v>
       </c>
       <c r="Q10">
-        <v>0.009869288684444444</v>
+        <v>0.009879186246222223</v>
       </c>
       <c r="R10">
-        <v>0.08882359815999999</v>
+        <v>0.08891267621600001</v>
       </c>
       <c r="S10">
-        <v>0.001736393185648203</v>
+        <v>0.001107720156373924</v>
       </c>
       <c r="T10">
-        <v>0.001736393185648203</v>
+        <v>0.001107720156373924</v>
       </c>
     </row>
   </sheetData>
